--- a/Spine_Projects/Input_data/input_prepared/Maersk_Example_Input_prepared.xlsx
+++ b/Spine_Projects/Input_data/input_prepared/Maersk_Example_Input_prepared.xlsx
@@ -519,7 +519,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Water</t>
+          <t>Power_Wholesale</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -531,7 +531,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Power_Kasso</t>
+          <t>Carbon_Dioxide</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -543,7 +543,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Waste_Heat</t>
+          <t>Hydrogen_storage_Kasso</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -555,7 +555,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Raw_Methanol</t>
+          <t>Waste_Heat</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -567,7 +567,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Carbon_Dioxide</t>
+          <t>Water</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -579,7 +579,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>District_Heating</t>
+          <t>Power_Kasso</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -591,7 +591,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Power_Wholesale</t>
+          <t>Vaporized_Carbon_Dioxide</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -603,7 +603,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Hydrogen_storage_Kasso</t>
+          <t>E-Methanol_storage_Kasso</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -627,7 +627,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Vaporized_Carbon_Dioxide</t>
+          <t>Raw_Methanol</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -639,7 +639,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>E-Methanol_Kasso</t>
+          <t>District_Heating</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -651,7 +651,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>E-Methanol_storage_Kasso</t>
+          <t>E-Methanol_Kasso</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1349,7 +1349,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Water</t>
+          <t>Power_Wholesale</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -1370,7 +1370,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Power_Kasso</t>
+          <t>Carbon_Dioxide</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -1380,20 +1380,18 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>balance_type_node</t>
+          <t>balance_type_none</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
-      <c r="G3" t="n">
-        <v>100000</v>
-      </c>
+      <c r="G3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Waste_Heat</t>
+          <t>Hydrogen_storage_Kasso</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1406,15 +1404,23 @@
           <t>balance_type_node</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
+      <c r="D4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E4" t="n">
+        <v>100000</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>100000</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Raw_Methanol</t>
+          <t>Waste_Heat</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1430,14 +1436,12 @@
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
-      <c r="G5" t="n">
-        <v>100000</v>
-      </c>
+      <c r="G5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Carbon_Dioxide</t>
+          <t>Water</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1458,7 +1462,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>District_Heating</t>
+          <t>Power_Kasso</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1468,18 +1472,20 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>balance_type_none</t>
+          <t>balance_type_node</t>
         </is>
       </c>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
+      <c r="G7" t="n">
+        <v>100000</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Power_Wholesale</t>
+          <t>Vaporized_Carbon_Dioxide</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1489,18 +1495,20 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>balance_type_none</t>
+          <t>balance_type_node</t>
         </is>
       </c>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
+      <c r="G8" t="n">
+        <v>100000</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Hydrogen_storage_Kasso</t>
+          <t>E-Methanol_storage_Kasso</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1552,7 +1560,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Vaporized_Carbon_Dioxide</t>
+          <t>Raw_Methanol</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1575,7 +1583,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>E-Methanol_Kasso</t>
+          <t>District_Heating</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1585,20 +1593,18 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>balance_type_node</t>
+          <t>balance_type_none</t>
         </is>
       </c>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr"/>
-      <c r="G12" t="n">
-        <v>100000</v>
-      </c>
+      <c r="G12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>E-Methanol_storage_Kasso</t>
+          <t>E-Methanol_Kasso</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1611,15 +1617,9 @@
           <t>balance_type_node</t>
         </is>
       </c>
-      <c r="D13" t="b">
-        <v>1</v>
-      </c>
-      <c r="E13" t="n">
-        <v>100000</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0</v>
-      </c>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
       <c r="G13" t="n">
         <v>100000</v>
       </c>
@@ -2124,7 +2124,7 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15">
@@ -2716,7 +2716,7 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1</v>
+        <v>1.257861635220126</v>
       </c>
     </row>
     <row r="6">
@@ -2751,7 +2751,7 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1</v>
+        <v>1.041666666666667</v>
       </c>
     </row>
     <row r="7">
@@ -3069,7 +3069,7 @@
         <v>0</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>1.428571428571429</v>
       </c>
       <c r="C6" t="n">
         <v>0.3</v>
@@ -3080,7 +3080,7 @@
         <v>1</v>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>1.428571428571429</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
